--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Serping1-Lrp1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Serping1-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.50665997833097</v>
+        <v>11.90597433333333</v>
       </c>
       <c r="H2">
-        <v>5.50665997833097</v>
+        <v>35.717923</v>
       </c>
       <c r="I2">
-        <v>0.004153005876708902</v>
+        <v>0.008895149679642379</v>
       </c>
       <c r="J2">
-        <v>0.004153005876708902</v>
+        <v>0.008895149679642379</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N2">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q2">
-        <v>54.95461095577466</v>
+        <v>204.3842655723966</v>
       </c>
       <c r="R2">
-        <v>54.95461095577466</v>
+        <v>1839.45839015157</v>
       </c>
       <c r="S2">
-        <v>0.0001391999191530497</v>
+        <v>0.0004984356179754692</v>
       </c>
       <c r="T2">
-        <v>0.0001391999191530497</v>
+        <v>0.0004984356179754692</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.50665997833097</v>
+        <v>11.90597433333333</v>
       </c>
       <c r="H3">
-        <v>5.50665997833097</v>
+        <v>35.717923</v>
       </c>
       <c r="I3">
-        <v>0.004153005876708902</v>
+        <v>0.008895149679642379</v>
       </c>
       <c r="J3">
-        <v>0.004153005876708902</v>
+        <v>0.008895149679642379</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N3">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q3">
-        <v>1407.859153487628</v>
+        <v>3053.219317228163</v>
       </c>
       <c r="R3">
-        <v>1407.859153487628</v>
+        <v>27478.97385505346</v>
       </c>
       <c r="S3">
-        <v>0.003566104407545912</v>
+        <v>0.0074459413641027</v>
       </c>
       <c r="T3">
-        <v>0.003566104407545912</v>
+        <v>0.0074459413641027</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.50665997833097</v>
+        <v>11.90597433333333</v>
       </c>
       <c r="H4">
-        <v>5.50665997833097</v>
+        <v>35.717923</v>
       </c>
       <c r="I4">
-        <v>0.004153005876708902</v>
+        <v>0.008895149679642379</v>
       </c>
       <c r="J4">
-        <v>0.004153005876708902</v>
+        <v>0.008895149679642379</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N4">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q4">
-        <v>176.7476924899815</v>
+        <v>389.8657570003575</v>
       </c>
       <c r="R4">
-        <v>176.7476924899815</v>
+        <v>3508.791813003218</v>
       </c>
       <c r="S4">
-        <v>0.0004477015500099397</v>
+        <v>0.0009507726975642093</v>
       </c>
       <c r="T4">
-        <v>0.0004477015500099397</v>
+        <v>0.0009507726975642093</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1200.68090417364</v>
+        <v>1205.102620666667</v>
       </c>
       <c r="H5">
-        <v>1200.68090417364</v>
+        <v>3615.307862</v>
       </c>
       <c r="I5">
-        <v>0.9055280098475663</v>
+        <v>0.9003520325209805</v>
       </c>
       <c r="J5">
-        <v>0.9055280098475663</v>
+        <v>0.9003520325209804</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N5">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q5">
-        <v>11982.39081957792</v>
+        <v>20687.43029075295</v>
       </c>
       <c r="R5">
-        <v>11982.39081957792</v>
+        <v>186186.8726167766</v>
       </c>
       <c r="S5">
-        <v>0.03035137187465109</v>
+        <v>0.0504508117218222</v>
       </c>
       <c r="T5">
-        <v>0.03035137187465109</v>
+        <v>0.05045081172182219</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1200.68090417364</v>
+        <v>1205.102620666667</v>
       </c>
       <c r="H6">
-        <v>1200.68090417364</v>
+        <v>3615.307862</v>
       </c>
       <c r="I6">
-        <v>0.9055280098475663</v>
+        <v>0.9003520325209805</v>
       </c>
       <c r="J6">
-        <v>0.9055280098475663</v>
+        <v>0.9003520325209804</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N6">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q6">
-        <v>306971.8500888821</v>
+        <v>309041.7044122429</v>
       </c>
       <c r="R6">
-        <v>306971.8500888821</v>
+        <v>2781375.339710185</v>
       </c>
       <c r="S6">
-        <v>0.7775590796015699</v>
+        <v>0.7536656135809324</v>
       </c>
       <c r="T6">
-        <v>0.7775590796015699</v>
+        <v>0.7536656135809323</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1200.68090417364</v>
+        <v>1205.102620666667</v>
       </c>
       <c r="H7">
-        <v>1200.68090417364</v>
+        <v>3615.307862</v>
       </c>
       <c r="I7">
-        <v>0.9055280098475663</v>
+        <v>0.9003520325209805</v>
       </c>
       <c r="J7">
-        <v>0.9055280098475663</v>
+        <v>0.9003520325209804</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N7">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O7">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P7">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q7">
-        <v>38538.34812110502</v>
+        <v>39461.55369694856</v>
       </c>
       <c r="R7">
-        <v>38538.34812110502</v>
+        <v>355153.9832725371</v>
       </c>
       <c r="S7">
-        <v>0.09761755837134531</v>
+        <v>0.09623560721822584</v>
       </c>
       <c r="T7">
-        <v>0.09761755837134531</v>
+        <v>0.09623560721822583</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>119.758062174661</v>
+        <v>121.4707743333333</v>
       </c>
       <c r="H8">
-        <v>119.758062174661</v>
+        <v>364.412323</v>
       </c>
       <c r="I8">
-        <v>0.09031898427572468</v>
+        <v>0.09075281779937723</v>
       </c>
       <c r="J8">
-        <v>0.09031898427572468</v>
+        <v>0.09075281779937722</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N8">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O8">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P8">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q8">
-        <v>1195.145104568578</v>
+        <v>2085.231691716397</v>
       </c>
       <c r="R8">
-        <v>1195.145104568578</v>
+        <v>18767.08522544757</v>
       </c>
       <c r="S8">
-        <v>0.003027300148953699</v>
+        <v>0.005085292373030238</v>
       </c>
       <c r="T8">
-        <v>0.003027300148953699</v>
+        <v>0.005085292373030237</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>119.758062174661</v>
+        <v>121.4707743333333</v>
       </c>
       <c r="H9">
-        <v>119.758062174661</v>
+        <v>364.412323</v>
       </c>
       <c r="I9">
-        <v>0.09031898427572468</v>
+        <v>0.09075281779937723</v>
       </c>
       <c r="J9">
-        <v>0.09031898427572468</v>
+        <v>0.09075281779937722</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N9">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P9">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q9">
-        <v>30617.921698452</v>
+        <v>31150.48834221376</v>
       </c>
       <c r="R9">
-        <v>30617.921698452</v>
+        <v>280354.3950799239</v>
       </c>
       <c r="S9">
-        <v>0.07755513415405357</v>
+        <v>0.0759672612938455</v>
       </c>
       <c r="T9">
-        <v>0.07755513415405357</v>
+        <v>0.07596726129384548</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>119.758062174661</v>
+        <v>121.4707743333333</v>
       </c>
       <c r="H10">
-        <v>119.758062174661</v>
+        <v>364.412323</v>
       </c>
       <c r="I10">
-        <v>0.09031898427572468</v>
+        <v>0.09075281779937723</v>
       </c>
       <c r="J10">
-        <v>0.09031898427572468</v>
+        <v>0.09075281779937722</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N10">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O10">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P10">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q10">
-        <v>3843.883811554791</v>
+        <v>3977.607717185957</v>
       </c>
       <c r="R10">
-        <v>3843.883811554791</v>
+        <v>35798.46945467362</v>
       </c>
       <c r="S10">
-        <v>0.009736549972717412</v>
+        <v>0.009700264132501489</v>
       </c>
       <c r="T10">
-        <v>0.009736549972717412</v>
+        <v>0.009700264132501487</v>
       </c>
     </row>
   </sheetData>
